--- a/fuentes/contenidos/grado06/guion04/SolicitudGrafica_CS_06_04_REC190.xlsx
+++ b/fuentes/contenidos/grado06/guion04/SolicitudGrafica_CS_06_04_REC190.xlsx
@@ -2265,7 +2265,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
